--- a/xlsx/FR/policies_all_support_FR.xlsx
+++ b/xlsx/FR/policies_all_support_FR.xlsx
@@ -12,30 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Ban on combustion cars where&lt;br&gt;public transport made available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ban on combustion-engine cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A green infrastructure program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A carbon tax with cash transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat oppose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indifferent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly support</t>
   </si>
 </sst>
 </file>
@@ -380,61 +386,93 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.131862013841555</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
+        <v>0.191813897162408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0605822991368496</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.160786867193909</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.200524649410815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
+        <v>0.283831054235308</v>
       </c>
       <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.125179364374692</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.235665029567015</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.276541752654362</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
+        <v>0.245206296665526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.256679683826522</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.331193319951248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.215204024594746</v>
+        <v>0.27356851061735</v>
       </c>
       <c r="C5" t="n">
-        <v>0.301806669533019</v>
+        <v>0.209654391890246</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3137</v>
+        <v>0.405073540782021</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.224372474825949</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.117503073475919</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0694943600465112</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.152485111879915</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0479823084618789</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/policies_all_support_FR.xlsx
+++ b/xlsx/FR/policies_all_support_FR.xlsx
@@ -395,16 +395,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.131862013841555</v>
+        <v>0.125837432194489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.191813897162408</v>
+        <v>0.18095692269438</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0605822991368496</v>
+        <v>0.0430148301718595</v>
       </c>
       <c r="E2" t="n">
-        <v>0.160786867193909</v>
+        <v>0.153199051841495</v>
       </c>
     </row>
     <row r="3">
@@ -412,16 +412,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.200524649410815</v>
+        <v>0.174397202462922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.283831054235308</v>
+        <v>0.268324302619787</v>
       </c>
       <c r="D3" t="n">
-        <v>0.125179364374692</v>
+        <v>0.127028995261134</v>
       </c>
       <c r="E3" t="n">
-        <v>0.235665029567015</v>
+        <v>0.205757588070887</v>
       </c>
     </row>
     <row r="4">
@@ -429,16 +429,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276541752654362</v>
+        <v>0.283381540846751</v>
       </c>
       <c r="C4" t="n">
-        <v>0.245206296665526</v>
+        <v>0.276989011049269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.256679683826522</v>
+        <v>0.248319942933761</v>
       </c>
       <c r="E4" t="n">
-        <v>0.331193319951248</v>
+        <v>0.359099352949039</v>
       </c>
     </row>
     <row r="5">
@@ -446,16 +446,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.27356851061735</v>
+        <v>0.270579841343923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209654391890246</v>
+        <v>0.191764157930816</v>
       </c>
       <c r="D5" t="n">
-        <v>0.405073540782021</v>
+        <v>0.402458552418977</v>
       </c>
       <c r="E5" t="n">
-        <v>0.224372474825949</v>
+        <v>0.220586593953773</v>
       </c>
     </row>
     <row r="6">
@@ -463,16 +463,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.117503073475919</v>
+        <v>0.145803983151914</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0694943600465112</v>
+        <v>0.0819656057057486</v>
       </c>
       <c r="D6" t="n">
-        <v>0.152485111879915</v>
+        <v>0.179177679214269</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0479823084618789</v>
+        <v>0.061357413184806</v>
       </c>
     </row>
   </sheetData>
